--- a/TestCases/TestData.xlsx
+++ b/TestCases/TestData.xlsx
@@ -2453,27 +2453,15 @@
     <t>First name</t>
   </si>
   <si>
-    <t>akash_1</t>
-  </si>
-  <si>
     <t>Last name</t>
   </si>
   <si>
-    <t>mylast_1</t>
-  </si>
-  <si>
     <t>Emailid</t>
   </si>
   <si>
-    <t>myemail_1_@gmail.com</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>empid_1</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -2534,18 +2522,6 @@
     <t>learner2_2</t>
   </si>
   <si>
-    <t>learner2_6</t>
-  </si>
-  <si>
-    <t>ln2_6</t>
-  </si>
-  <si>
-    <t>learner2_6_@gmail.com</t>
-  </si>
-  <si>
-    <t>123_6</t>
-  </si>
-  <si>
     <t>AssignCampOneTrackwithFourLessonsLearner</t>
   </si>
   <si>
@@ -2576,18 +2552,6 @@
     <t>You successfully published "Track_for_CampAssign_withOneTrackFourLesson".</t>
   </si>
   <si>
-    <t>learner3_15</t>
-  </si>
-  <si>
-    <t>ln3_15</t>
-  </si>
-  <si>
-    <t>learner3_15_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp3_15</t>
-  </si>
-  <si>
     <t>AssignCampTwoTracksTwoLessonsGraded</t>
   </si>
   <si>
@@ -2633,18 +2597,6 @@
     <t>You successfully published "Track_for_CampAssign_TwoTrackTwolesson2".</t>
   </si>
   <si>
-    <t>learner4_20</t>
-  </si>
-  <si>
-    <t>ln4_20</t>
-  </si>
-  <si>
-    <t>learner4_20_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp4_20</t>
-  </si>
-  <si>
     <t>AssignCampTenLessonsGraded</t>
   </si>
   <si>
@@ -2702,18 +2654,6 @@
     <t>Lesson_for_Assignment_TenLessons10</t>
   </si>
   <si>
-    <t>learner5_14</t>
-  </si>
-  <si>
-    <t>ln5_14</t>
-  </si>
-  <si>
-    <t>learner5_14_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp5_14</t>
-  </si>
-  <si>
     <t>AssignCampOneTrackOneLessonNewHireTriggered</t>
   </si>
   <si>
@@ -2750,18 +2690,6 @@
     <t>Learner Details</t>
   </si>
   <si>
-    <t>Creator1_4</t>
-  </si>
-  <si>
-    <t>CR6_4</t>
-  </si>
-  <si>
-    <t>Creator1_4_@gmail.com</t>
-  </si>
-  <si>
-    <t>create1_4</t>
-  </si>
-  <si>
     <t>AssignCampOneLessonToLA</t>
   </si>
   <si>
@@ -2774,18 +2702,6 @@
     <t>Lesson_for_Assignment_ToLA</t>
   </si>
   <si>
-    <t>LearningAdmin1_4</t>
-  </si>
-  <si>
-    <t>la1_4</t>
-  </si>
-  <si>
-    <t>LA1_4_@gmail.com</t>
-  </si>
-  <si>
-    <t>learn1_4</t>
-  </si>
-  <si>
     <t>AssignCampOneLessonToMA</t>
   </si>
   <si>
@@ -2798,18 +2714,6 @@
     <t>Lesson_for_Assignment_ToMA</t>
   </si>
   <si>
-    <t>Master1_9</t>
-  </si>
-  <si>
-    <t>ma1_9</t>
-  </si>
-  <si>
-    <t>master1_9_@gmail.com</t>
-  </si>
-  <si>
-    <t>Ma1_9</t>
-  </si>
-  <si>
     <t>minimum score</t>
   </si>
   <si>
@@ -2828,18 +2732,6 @@
     <t>Lesson_for_AssignmentForGroup</t>
   </si>
   <si>
-    <t>learner8_6</t>
-  </si>
-  <si>
-    <t>ln8_6</t>
-  </si>
-  <si>
-    <t>mail8_6_@gmail.com</t>
-  </si>
-  <si>
-    <t>eid8_6</t>
-  </si>
-  <si>
     <t>GroupDetails</t>
   </si>
   <si>
@@ -2847,6 +2739,114 @@
   </si>
   <si>
     <t>TestGroup_5</t>
+  </si>
+  <si>
+    <t>akash1_1</t>
+  </si>
+  <si>
+    <t>mylast1_1</t>
+  </si>
+  <si>
+    <t>empid1_1</t>
+  </si>
+  <si>
+    <t>myemail1_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>learner21_6</t>
+  </si>
+  <si>
+    <t>ln21_6</t>
+  </si>
+  <si>
+    <t>learner21_6_@gmail.com</t>
+  </si>
+  <si>
+    <t>1231_6</t>
+  </si>
+  <si>
+    <t>learner31_15</t>
+  </si>
+  <si>
+    <t>ln31_15</t>
+  </si>
+  <si>
+    <t>learner31_15_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp31_15</t>
+  </si>
+  <si>
+    <t>learner41_20</t>
+  </si>
+  <si>
+    <t>ln41_20</t>
+  </si>
+  <si>
+    <t>learner41_20_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp41_20</t>
+  </si>
+  <si>
+    <t>learner51_14</t>
+  </si>
+  <si>
+    <t>ln51_14</t>
+  </si>
+  <si>
+    <t>learner51_14_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp51_14</t>
+  </si>
+  <si>
+    <t>Creator11_4</t>
+  </si>
+  <si>
+    <t>CR61_4</t>
+  </si>
+  <si>
+    <t>Creator11_4_@gmail.com</t>
+  </si>
+  <si>
+    <t>create11_4</t>
+  </si>
+  <si>
+    <t>LearningAdmin11_4</t>
+  </si>
+  <si>
+    <t>la11_4</t>
+  </si>
+  <si>
+    <t>LA11_4_@gmail.com</t>
+  </si>
+  <si>
+    <t>learn11_4</t>
+  </si>
+  <si>
+    <t>Master11_9</t>
+  </si>
+  <si>
+    <t>ma11_9</t>
+  </si>
+  <si>
+    <t>master11_9_@gmail.com</t>
+  </si>
+  <si>
+    <t>Ma11_9</t>
+  </si>
+  <si>
+    <t>learner81_6</t>
+  </si>
+  <si>
+    <t>ln81_6</t>
+  </si>
+  <si>
+    <t>mail81_6_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid81_6</t>
   </si>
 </sst>
 </file>
@@ -3255,6 +3255,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3267,13 +3274,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3293,13 +3300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3795,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3812,62 +3812,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="42" t="s">
-        <v>807</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>808</v>
+        <v>805</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>810</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B6" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B7" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>20</v>
@@ -3878,25 +3878,25 @@
       <c r="B9" s="42"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="59" t="s">
-        <v>814</v>
-      </c>
-      <c r="B12" s="61"/>
+      <c r="A12" s="62" t="s">
+        <v>810</v>
+      </c>
+      <c r="B12" s="64"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="42" t="s">
         <v>139</v>
       </c>
@@ -3980,25 +3980,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="59" t="s">
-        <v>819</v>
-      </c>
-      <c r="B27" s="61"/>
+      <c r="A27" s="62" t="s">
+        <v>815</v>
+      </c>
+      <c r="B27" s="64"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4018,17 +4018,17 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="59" t="s">
-        <v>823</v>
-      </c>
-      <c r="B32" s="61"/>
+      <c r="A32" s="62" t="s">
+        <v>819</v>
+      </c>
+      <c r="B32" s="64"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="42" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4039,149 +4039,149 @@
         <v>799</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="42" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="45">
       <c r="A37" s="42" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="59" t="s">
-        <v>830</v>
-      </c>
-      <c r="B38" s="61"/>
+      <c r="A38" s="62" t="s">
+        <v>826</v>
+      </c>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>831</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>832</v>
+        <v>905</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="42" t="s">
-        <v>807</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>833</v>
+        <v>805</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>834</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B43" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B43" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B44" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="59" t="s">
-        <v>835</v>
-      </c>
-      <c r="B48" s="61"/>
+      <c r="A48" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="B48" s="64"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
         <v>727</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="42" t="s">
         <v>548</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>840</v>
-      </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-    </row>
-    <row r="54" spans="1:5">
+        <v>832</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+    </row>
+    <row r="54" spans="1:5" ht="30">
       <c r="A54" s="42" t="s">
         <v>581</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>841</v>
-      </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
+        <v>833</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="42" t="s">
@@ -4241,16 +4241,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="B62" s="64"/>
+        <v>819</v>
+      </c>
+      <c r="B62" s="51"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="42" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4261,117 +4261,117 @@
         <v>799</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="30">
       <c r="A65" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="42" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B66" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="45">
       <c r="A67" s="42" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="48" t="s">
-        <v>830</v>
-      </c>
-      <c r="B68" s="64"/>
+        <v>826</v>
+      </c>
+      <c r="B68" s="51"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>845</v>
+        <v>908</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>846</v>
+        <v>909</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>847</v>
+        <v>910</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>848</v>
+        <v>911</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B73" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B73" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B74" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B74" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="59" t="s">
-        <v>849</v>
-      </c>
-      <c r="B78" s="61"/>
+      <c r="A78" s="62" t="s">
+        <v>837</v>
+      </c>
+      <c r="B78" s="64"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
       <c r="A80" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="42" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B81" s="42">
         <v>50</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="42" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B82" s="42">
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>727</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>548</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4435,24 +4435,24 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="B89" s="64"/>
+        <v>819</v>
+      </c>
+      <c r="B89" s="51"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="42" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="42" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4463,125 +4463,125 @@
         <v>799</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="30">
       <c r="A93" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="42" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B94" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="30">
       <c r="A95" s="42" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
       <c r="A96" s="42" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="48" t="s">
-        <v>830</v>
-      </c>
-      <c r="B97" s="64"/>
+        <v>826</v>
+      </c>
+      <c r="B97" s="51"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>864</v>
+        <v>912</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>865</v>
+        <v>913</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>866</v>
+        <v>914</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>867</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B102" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B102" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B103" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B103" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B104" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="59" t="s">
-        <v>868</v>
-      </c>
-      <c r="B108" s="61"/>
+      <c r="A108" s="62" t="s">
+        <v>852</v>
+      </c>
+      <c r="B108" s="64"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
       <c r="A110" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="42" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B111" s="42">
         <v>50</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="42" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B112" s="42">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>727</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>548</v>
       </c>
       <c r="B114" s="42" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>564</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4624,55 +4624,55 @@
         <v>581</v>
       </c>
       <c r="B116" s="42" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="42" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="42" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="42" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="42" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="42" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="B121" s="42" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="42" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4725,91 +4725,91 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="48" t="s">
-        <v>830</v>
-      </c>
-      <c r="B129" s="64"/>
+        <v>826</v>
+      </c>
+      <c r="B129" s="51"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B134" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B134" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B135" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B135" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="59" t="s">
-        <v>891</v>
-      </c>
-      <c r="B139" s="61"/>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="A139" s="62" t="s">
+        <v>871</v>
+      </c>
+      <c r="B139" s="64"/>
+    </row>
+    <row r="140" spans="1:2" ht="30">
       <c r="A140" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30">
       <c r="A141" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B141" s="42" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="42" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="B142" s="42">
         <v>2</v>
@@ -4820,7 +4820,7 @@
         <v>727</v>
       </c>
       <c r="B143" s="42" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4833,16 +4833,16 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="B145" s="64"/>
+        <v>819</v>
+      </c>
+      <c r="B145" s="51"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="42" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4853,50 +4853,50 @@
         <v>799</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="30">
       <c r="A148" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="42" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B149" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="30">
       <c r="A150" s="42" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="59" t="s">
-        <v>898</v>
-      </c>
-      <c r="B154" s="61"/>
+      <c r="A154" s="62" t="s">
+        <v>878</v>
+      </c>
+      <c r="B154" s="64"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B155" s="42" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30">
       <c r="A156" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B156" s="42" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>23</v>
       </c>
       <c r="B157" s="42" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4932,87 +4932,87 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="59" t="s">
-        <v>902</v>
-      </c>
-      <c r="B161" s="61"/>
+      <c r="A161" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="B161" s="64"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B166" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B166" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B167" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B167" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B168" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="59" t="s">
-        <v>907</v>
-      </c>
-      <c r="B171" s="61"/>
+      <c r="A171" s="62" t="s">
+        <v>883</v>
+      </c>
+      <c r="B171" s="64"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="30">
       <c r="A173" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5020,7 +5020,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5048,87 +5048,87 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="59" t="s">
-        <v>902</v>
-      </c>
-      <c r="B178" s="61"/>
+      <c r="A178" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="B178" s="64"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B183" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B183" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B184" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B184" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B185" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="59" t="s">
-        <v>915</v>
-      </c>
-      <c r="B189" s="61"/>
+      <c r="A189" s="62" t="s">
+        <v>887</v>
+      </c>
+      <c r="B189" s="64"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="30">
       <c r="A191" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>23</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5164,62 +5164,62 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="59" t="s">
-        <v>902</v>
-      </c>
-      <c r="B196" s="61"/>
+      <c r="A196" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="B196" s="64"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B201" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B201" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B202" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B202" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B203" s="42" t="s">
         <v>20</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="42" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="B204" s="42">
         <v>50</v>
@@ -5235,24 +5235,24 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="42" t="s">
-        <v>924</v>
+        <v>892</v>
       </c>
       <c r="B205" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="59" t="s">
-        <v>925</v>
-      </c>
-      <c r="B208" s="61"/>
+      <c r="A208" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B208" s="64"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="42" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5260,12 +5260,12 @@
         <v>105</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="42" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="B211" s="42">
         <v>50</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="42" t="s">
-        <v>924</v>
+        <v>892</v>
       </c>
       <c r="B212" s="42">
         <v>2</v>
@@ -5284,7 +5284,7 @@
         <v>23</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5312,86 +5312,87 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="59" t="s">
-        <v>902</v>
-      </c>
-      <c r="B217" s="61"/>
+      <c r="A217" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="B217" s="64"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="42" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="42" t="s">
-        <v>811</v>
-      </c>
-      <c r="B222" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="B222" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="B223" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B223" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="42" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B224" s="42"/>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="65" t="s">
-        <v>933</v>
-      </c>
-      <c r="B225" s="61"/>
+        <v>897</v>
+      </c>
+      <c r="B225" s="64"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="42" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>935</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A108:B108"/>
@@ -5399,12 +5400,11 @@
     <mergeCell ref="A154:B154"/>
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A217:B217"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -5797,10 +5797,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -5823,10 +5823,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -5873,10 +5873,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -5903,10 +5903,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -5937,10 +5937,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -6015,14 +6015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -6081,14 +6081,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -6159,14 +6159,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -6229,14 +6229,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -6303,14 +6303,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="50" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -6377,14 +6377,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -6467,14 +6467,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="51"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
@@ -6568,14 +6568,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="54"/>
+      <c r="C60" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="54"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -6668,14 +6668,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="50" t="s">
+      <c r="B70" s="57"/>
+      <c r="C70" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="54"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -6712,10 +6712,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="54"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
@@ -6758,14 +6758,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="50" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="51"/>
+      <c r="D79" s="54"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
@@ -6802,10 +6802,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="51"/>
+      <c r="D82" s="54"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
@@ -6846,14 +6846,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="49" t="s">
+      <c r="B88" s="55"/>
+      <c r="C88" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="49"/>
+      <c r="D88" s="52"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
@@ -6904,10 +6904,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
@@ -6946,10 +6946,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="49"/>
+      <c r="D96" s="52"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
@@ -6992,14 +6992,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="49" t="s">
+      <c r="B103" s="55"/>
+      <c r="C103" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="49"/>
+      <c r="D103" s="52"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
@@ -7022,10 +7022,10 @@
       <c r="B105" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="51"/>
+      <c r="D105" s="54"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
@@ -7140,14 +7140,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="49" t="s">
+      <c r="B118" s="55"/>
+      <c r="C118" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="49"/>
+      <c r="D118" s="52"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -7230,10 +7230,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="51"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -7280,14 +7280,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="49" t="s">
+      <c r="B131" s="55"/>
+      <c r="C131" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="49"/>
+      <c r="D131" s="52"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -7418,14 +7418,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="52" t="s">
+      <c r="A144" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="52"/>
-      <c r="C144" s="49" t="s">
+      <c r="B144" s="55"/>
+      <c r="C144" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="49"/>
+      <c r="D144" s="52"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -7552,14 +7552,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="52" t="s">
+      <c r="A157" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="49" t="s">
+      <c r="B157" s="55"/>
+      <c r="C157" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="49"/>
+      <c r="D157" s="52"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -7693,6 +7693,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -7703,34 +7731,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -8975,18 +8975,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="61"/>
+      <c r="D1" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="60"/>
+      <c r="G1" s="59" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -9055,14 +9055,14 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="G5" s="59" t="s">
+      <c r="E5" s="60"/>
+      <c r="G5" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
@@ -9187,16 +9187,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="60"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -9239,16 +9239,16 @@
       <c r="B19" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E19" s="60"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="60"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -9303,16 +9303,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="63"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="60"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -9351,14 +9351,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="60"/>
+      <c r="D30" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -9403,16 +9403,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="59" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="60"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -9463,10 +9463,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="60"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -9481,10 +9481,10 @@
       <c r="B40" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="E40" s="60"/>
+      <c r="E40" s="63"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
@@ -9523,10 +9523,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="60"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -9543,10 +9543,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="59" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="60"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -9563,10 +9563,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="60"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -9595,10 +9595,10 @@
       <c r="B50" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E50" s="60"/>
+      <c r="E50" s="63"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
@@ -9651,10 +9651,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="45">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="60"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -9669,10 +9669,10 @@
       <c r="B56" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="60"/>
+      <c r="E56" s="63"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
@@ -9703,10 +9703,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="60"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -9737,10 +9737,10 @@
       <c r="B62" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="59" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -9827,14 +9827,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="D69" s="59" t="s">
+      <c r="B69" s="61"/>
+      <c r="D69" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E69" s="60"/>
+      <c r="E69" s="63"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="42" t="s">
@@ -9895,10 +9895,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="60"/>
       <c r="D75" s="46" t="s">
         <v>473</v>
       </c>
@@ -9947,10 +9947,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="60"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -9981,10 +9981,10 @@
       <c r="B82" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="59" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="57"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="44" t="s">
         <v>675</v>
       </c>
@@ -10047,10 +10047,10 @@
       <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E86" s="60"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="45" t="s">
         <v>629</v>
       </c>
@@ -10076,10 +10076,10 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="30">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="59" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="60"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -10129,19 +10129,19 @@
       <c r="B92" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="59" t="s">
+      <c r="D92" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="E92" s="60"/>
+      <c r="E92" s="63"/>
       <c r="F92" s="45" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="60"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -10295,10 +10295,10 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="58" t="s">
+      <c r="A105" s="61" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="58"/>
+      <c r="B105" s="61"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -10321,10 +10321,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="59" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="57"/>
+      <c r="E107" s="60"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -10369,10 +10369,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="58" t="s">
+      <c r="A111" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="58"/>
+      <c r="B111" s="61"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -10415,10 +10415,10 @@
       <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E114" s="60"/>
+      <c r="E114" s="63"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="42" t="s">
@@ -10491,10 +10491,10 @@
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="30">
-      <c r="A121" s="58" t="s">
+      <c r="A121" s="61" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="58"/>
+      <c r="B121" s="61"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -10545,10 +10545,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="58" t="s">
+      <c r="A125" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="58"/>
+      <c r="B125" s="61"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -10593,10 +10593,10 @@
       <c r="B129" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="60"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -10615,10 +10615,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="45">
-      <c r="A132" s="58" t="s">
+      <c r="A132" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="58"/>
+      <c r="B132" s="61"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -10669,14 +10669,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="58" t="s">
+      <c r="A136" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="58"/>
-      <c r="D136" s="59" t="s">
+      <c r="B136" s="61"/>
+      <c r="D136" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E136" s="60"/>
+      <c r="E136" s="63"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
@@ -10763,10 +10763,10 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="58" t="s">
+      <c r="A144" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="58"/>
+      <c r="B144" s="61"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -10817,10 +10817,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="58" t="s">
+      <c r="A148" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="58"/>
+      <c r="B148" s="61"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -10865,10 +10865,10 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="59" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="57"/>
+      <c r="E152" s="60"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -10961,10 +10961,10 @@
       <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="59" t="s">
+      <c r="D159" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E159" s="60"/>
+      <c r="E159" s="63"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="42" t="s">
@@ -10983,10 +10983,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
-      <c r="A162" s="58" t="s">
+      <c r="A162" s="61" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="58"/>
+      <c r="B162" s="61"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -11063,10 +11063,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="58" t="s">
+      <c r="A168" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="58"/>
+      <c r="B168" s="61"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
@@ -11191,10 +11191,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="59" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="57"/>
+      <c r="E178" s="60"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -11227,10 +11227,10 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="58" t="s">
+      <c r="A182" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="58"/>
+      <c r="B182" s="61"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -11273,10 +11273,10 @@
       <c r="B185" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D185" s="59" t="s">
+      <c r="D185" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="E185" s="60"/>
+      <c r="E185" s="63"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
@@ -11307,10 +11307,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="58" t="s">
+      <c r="A188" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="58"/>
+      <c r="B188" s="61"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -11437,10 +11437,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="57"/>
+      <c r="E198" s="60"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -11493,10 +11493,10 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="58" t="s">
+      <c r="A203" s="61" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="58"/>
+      <c r="B203" s="61"/>
       <c r="D203" s="46" t="s">
         <v>629</v>
       </c>
@@ -11573,10 +11573,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="58" t="s">
+      <c r="A209" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="58"/>
+      <c r="B209" s="61"/>
       <c r="D209" s="46" t="s">
         <v>473</v>
       </c>
@@ -11675,10 +11675,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="56" t="s">
+      <c r="D217" s="59" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="57"/>
+      <c r="E217" s="60"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -11737,10 +11737,10 @@
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="30">
-      <c r="A223" s="58" t="s">
+      <c r="A223" s="61" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="58"/>
+      <c r="B223" s="61"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -11817,10 +11817,10 @@
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="58" t="s">
+      <c r="A229" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="58"/>
+      <c r="B229" s="61"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -11977,10 +11977,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="59" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="57"/>
+      <c r="E241" s="60"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -12032,10 +12032,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="56" t="s">
+      <c r="A247" s="59" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="57"/>
+      <c r="B247" s="60"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -12358,10 +12358,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="56" t="s">
+      <c r="A276" s="59" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="57"/>
+      <c r="B276" s="60"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -12552,10 +12552,10 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="56" t="s">
+      <c r="A305" s="59" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="57"/>
+      <c r="B305" s="60"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
@@ -12763,26 +12763,37 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="A89:B89"/>
@@ -12796,37 +12807,26 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/TestData.xlsx
+++ b/TestCases/TestData.xlsx
@@ -2738,115 +2738,115 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>TestGroup_5</t>
-  </si>
-  <si>
-    <t>akash1_1</t>
-  </si>
-  <si>
-    <t>mylast1_1</t>
-  </si>
-  <si>
-    <t>empid1_1</t>
-  </si>
-  <si>
-    <t>myemail1_1_@gmail.com</t>
-  </si>
-  <si>
-    <t>learner21_6</t>
-  </si>
-  <si>
-    <t>ln21_6</t>
-  </si>
-  <si>
-    <t>learner21_6_@gmail.com</t>
-  </si>
-  <si>
-    <t>1231_6</t>
-  </si>
-  <si>
-    <t>learner31_15</t>
-  </si>
-  <si>
-    <t>ln31_15</t>
-  </si>
-  <si>
-    <t>learner31_15_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp31_15</t>
-  </si>
-  <si>
-    <t>learner41_20</t>
-  </si>
-  <si>
-    <t>ln41_20</t>
-  </si>
-  <si>
-    <t>learner41_20_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp41_20</t>
-  </si>
-  <si>
-    <t>learner51_14</t>
-  </si>
-  <si>
-    <t>ln51_14</t>
-  </si>
-  <si>
-    <t>learner51_14_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp51_14</t>
-  </si>
-  <si>
-    <t>Creator11_4</t>
-  </si>
-  <si>
-    <t>CR61_4</t>
-  </si>
-  <si>
-    <t>Creator11_4_@gmail.com</t>
-  </si>
-  <si>
-    <t>create11_4</t>
-  </si>
-  <si>
-    <t>LearningAdmin11_4</t>
-  </si>
-  <si>
-    <t>la11_4</t>
-  </si>
-  <si>
-    <t>LA11_4_@gmail.com</t>
-  </si>
-  <si>
-    <t>learn11_4</t>
-  </si>
-  <si>
-    <t>Master11_9</t>
-  </si>
-  <si>
-    <t>ma11_9</t>
-  </si>
-  <si>
-    <t>master11_9_@gmail.com</t>
-  </si>
-  <si>
-    <t>Ma11_9</t>
-  </si>
-  <si>
-    <t>learner81_6</t>
-  </si>
-  <si>
-    <t>ln81_6</t>
-  </si>
-  <si>
-    <t>mail81_6_@gmail.com</t>
-  </si>
-  <si>
-    <t>eid81_6</t>
+    <t>akash1_2</t>
+  </si>
+  <si>
+    <t>mylast1_2</t>
+  </si>
+  <si>
+    <t>myemail1_2_@gmail.com</t>
+  </si>
+  <si>
+    <t>empid1_2</t>
+  </si>
+  <si>
+    <t>learner21_7</t>
+  </si>
+  <si>
+    <t>ln21_7</t>
+  </si>
+  <si>
+    <t>1231_7</t>
+  </si>
+  <si>
+    <t>learner21_7_@gmail.com</t>
+  </si>
+  <si>
+    <t>learner31_16</t>
+  </si>
+  <si>
+    <t>ln31_16</t>
+  </si>
+  <si>
+    <t>learner31_16_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp31_16</t>
+  </si>
+  <si>
+    <t>learner41_21</t>
+  </si>
+  <si>
+    <t>ln41_21</t>
+  </si>
+  <si>
+    <t>learner41_21_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp41_21</t>
+  </si>
+  <si>
+    <t>learner51_15</t>
+  </si>
+  <si>
+    <t>ln51_15</t>
+  </si>
+  <si>
+    <t>learner51_15_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp51_15</t>
+  </si>
+  <si>
+    <t>Creator11_5</t>
+  </si>
+  <si>
+    <t>CR61_5</t>
+  </si>
+  <si>
+    <t>Creator11_5_@gmail.com</t>
+  </si>
+  <si>
+    <t>create11_5</t>
+  </si>
+  <si>
+    <t>LearningAdmin11_5</t>
+  </si>
+  <si>
+    <t>la11_5</t>
+  </si>
+  <si>
+    <t>LA11_5_@gmail.com</t>
+  </si>
+  <si>
+    <t>learn11_5</t>
+  </si>
+  <si>
+    <t>Master11_10</t>
+  </si>
+  <si>
+    <t>ma11_10</t>
+  </si>
+  <si>
+    <t>master11_10_@gmail.com</t>
+  </si>
+  <si>
+    <t>Ma11_10</t>
+  </si>
+  <si>
+    <t>learner81_7</t>
+  </si>
+  <si>
+    <t>ln81_7</t>
+  </si>
+  <si>
+    <t>mail81_7_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid81_7</t>
+  </si>
+  <si>
+    <t>TestGroup_7</t>
   </si>
 </sst>
 </file>
@@ -3274,13 +3274,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3795,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3822,7 +3822,7 @@
         <v>803</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>804</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>805</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>803</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>804</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>806</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>803</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>804</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>805</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>806</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>803</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>804</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>805</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>806</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>803</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>804</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>805</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>806</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>803</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>804</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>805</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>806</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>803</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>804</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>805</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>806</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>803</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>804</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>805</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>806</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>803</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>804</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>805</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>806</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5382,17 +5382,11 @@
         <v>898</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A108:B108"/>
@@ -5405,6 +5399,12 @@
     <mergeCell ref="A196:B196"/>
     <mergeCell ref="A208:B208"/>
     <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -6668,10 +6668,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="53" t="s">
         <v>170</v>
       </c>
@@ -6758,10 +6758,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="53" t="s">
         <v>182</v>
       </c>
@@ -7230,7 +7230,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="58" t="s">
+      <c r="A125" s="56" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="54"/>
@@ -7693,6 +7693,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -7703,34 +7731,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12763,12 +12763,51 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D19:E19"/>
@@ -12782,51 +12821,12 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/TestData.xlsx
+++ b/TestCases/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="983">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2738,115 +2738,256 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>akash1_2</t>
-  </si>
-  <si>
-    <t>mylast1_2</t>
-  </si>
-  <si>
-    <t>myemail1_2_@gmail.com</t>
-  </si>
-  <si>
-    <t>empid1_2</t>
-  </si>
-  <si>
-    <t>learner21_7</t>
-  </si>
-  <si>
-    <t>ln21_7</t>
-  </si>
-  <si>
-    <t>1231_7</t>
-  </si>
-  <si>
-    <t>learner21_7_@gmail.com</t>
-  </si>
-  <si>
-    <t>learner31_16</t>
-  </si>
-  <si>
-    <t>ln31_16</t>
-  </si>
-  <si>
-    <t>learner31_16_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp31_16</t>
-  </si>
-  <si>
-    <t>learner41_21</t>
-  </si>
-  <si>
-    <t>ln41_21</t>
-  </si>
-  <si>
-    <t>learner41_21_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp41_21</t>
-  </si>
-  <si>
-    <t>learner51_15</t>
-  </si>
-  <si>
-    <t>ln51_15</t>
-  </si>
-  <si>
-    <t>learner51_15_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp51_15</t>
-  </si>
-  <si>
-    <t>Creator11_5</t>
-  </si>
-  <si>
-    <t>CR61_5</t>
-  </si>
-  <si>
-    <t>Creator11_5_@gmail.com</t>
-  </si>
-  <si>
-    <t>create11_5</t>
-  </si>
-  <si>
-    <t>LearningAdmin11_5</t>
-  </si>
-  <si>
-    <t>la11_5</t>
-  </si>
-  <si>
-    <t>LA11_5_@gmail.com</t>
-  </si>
-  <si>
-    <t>learn11_5</t>
-  </si>
-  <si>
-    <t>Master11_10</t>
-  </si>
-  <si>
-    <t>ma11_10</t>
-  </si>
-  <si>
-    <t>master11_10_@gmail.com</t>
-  </si>
-  <si>
-    <t>Ma11_10</t>
-  </si>
-  <si>
-    <t>learner81_7</t>
-  </si>
-  <si>
-    <t>ln81_7</t>
-  </si>
-  <si>
-    <t>mail81_7_@gmail.com</t>
-  </si>
-  <si>
-    <t>eid81_7</t>
-  </si>
-  <si>
-    <t>TestGroup_7</t>
+    <t>AssignCampLessonTriggeredToGroupAndCheckForUser</t>
+  </si>
+  <si>
+    <t>CampTriggeredToGroupCheckNewUser</t>
+  </si>
+  <si>
+    <t>Campaign with triggered for New to Group And Check for new user</t>
+  </si>
+  <si>
+    <t>Lesson_for_AssignmentForGroup_CheckForUser</t>
+  </si>
+  <si>
+    <t>Second Learner</t>
+  </si>
+  <si>
+    <t>AssignCampLessonTriggeredToGroupWithoutCurrentUsers</t>
+  </si>
+  <si>
+    <t>CampTriggeredToGroupWithoutCurrentUser</t>
+  </si>
+  <si>
+    <t>Campaign with triggered for Group without current user and check for that user</t>
+  </si>
+  <si>
+    <t>Lesson_for_AssignmentForGroup_WithoutCurrentUser</t>
+  </si>
+  <si>
+    <t>AssignCampLessonWithTwoTriggers</t>
+  </si>
+  <si>
+    <t>CampWithLessonAndTwoTriggers</t>
+  </si>
+  <si>
+    <t>Campaign with lesson with two triggers group and new hire</t>
+  </si>
+  <si>
+    <t>Lesson_for_TwoTriggers_NewHire_Group</t>
+  </si>
+  <si>
+    <t>AssignCampLessonWithTwoGroupsTriggered</t>
+  </si>
+  <si>
+    <t>CampWithTwoGroupsTriggered</t>
+  </si>
+  <si>
+    <t>Campaign Triggered for two groups after saving Campaign</t>
+  </si>
+  <si>
+    <t>Lesson_for_TwoGroupsTriggeredCampaign</t>
+  </si>
+  <si>
+    <t>Learner 2</t>
+  </si>
+  <si>
+    <t>akashAAB_1</t>
+  </si>
+  <si>
+    <t>mylastAAB_1</t>
+  </si>
+  <si>
+    <t>myemailAAB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>empidAAB_1</t>
+  </si>
+  <si>
+    <t>learner2AAB_1</t>
+  </si>
+  <si>
+    <t>ln2AAB_1</t>
+  </si>
+  <si>
+    <t>learner2AAB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>123AAB_1</t>
+  </si>
+  <si>
+    <t>learner3AB_1</t>
+  </si>
+  <si>
+    <t>ln3AB_1</t>
+  </si>
+  <si>
+    <t>learner3AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp3AB_1</t>
+  </si>
+  <si>
+    <t>learner4AB_1</t>
+  </si>
+  <si>
+    <t>ln4AB_1</t>
+  </si>
+  <si>
+    <t>learner4B_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp4AB_1</t>
+  </si>
+  <si>
+    <t>learner5AB_1</t>
+  </si>
+  <si>
+    <t>ln5AB_1</t>
+  </si>
+  <si>
+    <t>learner5AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp5AB_1</t>
+  </si>
+  <si>
+    <t>Creator1AB_1</t>
+  </si>
+  <si>
+    <t>CR6AB_1</t>
+  </si>
+  <si>
+    <t>Creator1AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>create1AB_1</t>
+  </si>
+  <si>
+    <t>LearningAdmin1AB_1</t>
+  </si>
+  <si>
+    <t>la1AB_1</t>
+  </si>
+  <si>
+    <t>LA1AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>learn1AB_1</t>
+  </si>
+  <si>
+    <t>Master1AB_1</t>
+  </si>
+  <si>
+    <t>ma1AB_1</t>
+  </si>
+  <si>
+    <t>master1AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>Ma1AB_1</t>
+  </si>
+  <si>
+    <t>learner8AB_1</t>
+  </si>
+  <si>
+    <t>ln8AB_1</t>
+  </si>
+  <si>
+    <t>mail8AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid8AB_1</t>
+  </si>
+  <si>
+    <t>TestGroup2AB_1</t>
+  </si>
+  <si>
+    <t>learner82AB_1</t>
+  </si>
+  <si>
+    <t>ln82AB_1</t>
+  </si>
+  <si>
+    <t>mail82AB_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid82AB_1</t>
+  </si>
+  <si>
+    <t>learnernew82BA_1</t>
+  </si>
+  <si>
+    <t>lnnew82BA_1</t>
+  </si>
+  <si>
+    <t>mailnew82BA_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eidnew82BA_1</t>
+  </si>
+  <si>
+    <t>TestGroup3AA_1</t>
+  </si>
+  <si>
+    <t>learnerAAA_1</t>
+  </si>
+  <si>
+    <t>lnAAA_11</t>
+  </si>
+  <si>
+    <t>mailAAA_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eidAAA_1</t>
+  </si>
+  <si>
+    <t>TestGroupAAA_1</t>
+  </si>
+  <si>
+    <t>learnerBAA_1</t>
+  </si>
+  <si>
+    <t>lnBAA_1</t>
+  </si>
+  <si>
+    <t>mailBAA_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eidBAA_1</t>
+  </si>
+  <si>
+    <t>TestGroupBAA_1</t>
+  </si>
+  <si>
+    <t>learnerCAA_1</t>
+  </si>
+  <si>
+    <t>lnCAA_1</t>
+  </si>
+  <si>
+    <t>mailCAA_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eidCAA_1</t>
+  </si>
+  <si>
+    <t>learnerDAA_1</t>
+  </si>
+  <si>
+    <t>lnDAA_1</t>
+  </si>
+  <si>
+    <t>mailDAA_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>eidDAA_1</t>
+  </si>
+  <si>
+    <t>TestGroupCA_1</t>
+  </si>
+  <si>
+    <t>TestGroupDA_1</t>
   </si>
 </sst>
 </file>
@@ -3159,7 +3300,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3252,15 +3393,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3300,6 +3444,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3793,36 +3940,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="41" customWidth="1"/>
-    <col min="7" max="24" width="9.140625" style="41" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="22.28515625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="52" customWidth="1"/>
+    <col min="7" max="35" width="9.140625" style="52" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3830,15 +3977,15 @@
         <v>804</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="42" t="s">
         <v>805</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>901</v>
+      <c r="B4" s="9" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3846,14 +3993,14 @@
         <v>806</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3861,7 +4008,7 @@
       <c r="A7" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3877,11 +4024,11 @@
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
+      <c r="A12" s="63" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="65"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="42" t="s">
@@ -3979,11 +4126,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="63" t="s">
         <v>815</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
@@ -4018,10 +4165,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>819</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="65"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="42" t="s">
@@ -4064,17 +4211,17 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="65"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4082,15 +4229,15 @@
         <v>804</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="42" t="s">
         <v>805</v>
       </c>
-      <c r="B41" s="49" t="s">
-        <v>906</v>
+      <c r="B41" s="9" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4098,14 +4245,14 @@
         <v>806</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4113,7 +4260,7 @@
       <c r="A44" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4125,11 +4272,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:2" ht="15" customHeight="1">
+      <c r="A48" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="B48" s="64"/>
+      <c r="B48" s="65"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="42" t="s">
@@ -4170,8 +4317,8 @@
       <c r="B53" s="42" t="s">
         <v>832</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" s="42" t="s">
@@ -4180,8 +4327,8 @@
       <c r="B54" s="42" t="s">
         <v>833</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="42" t="s">
@@ -4240,10 +4387,10 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="B62" s="51"/>
+      <c r="B62" s="50"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="42" t="s">
@@ -4286,17 +4433,17 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="B68" s="51"/>
+      <c r="B68" s="50"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4304,7 +4451,7 @@
         <v>804</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4312,7 +4459,7 @@
         <v>805</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4320,14 +4467,14 @@
         <v>806</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4335,7 +4482,7 @@
       <c r="A74" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4347,11 +4494,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="62" t="s">
+    <row r="78" spans="1:2" ht="15" customHeight="1">
+      <c r="A78" s="63" t="s">
         <v>837</v>
       </c>
-      <c r="B78" s="64"/>
+      <c r="B78" s="65"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="42" t="s">
@@ -4434,10 +4581,10 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="B89" s="51"/>
+      <c r="B89" s="50"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="42" t="s">
@@ -4496,17 +4643,17 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="B97" s="51"/>
+      <c r="B97" s="50"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4514,7 +4661,7 @@
         <v>804</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4522,7 +4669,7 @@
         <v>805</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4530,14 +4677,14 @@
         <v>806</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4545,7 +4692,7 @@
       <c r="A103" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B103" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4557,11 +4704,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="62" t="s">
+    <row r="108" spans="1:2" ht="15" customHeight="1">
+      <c r="A108" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="B108" s="64"/>
+      <c r="B108" s="65"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="42" t="s">
@@ -4724,17 +4871,17 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="B129" s="51"/>
+      <c r="B129" s="50"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4742,7 +4889,7 @@
         <v>804</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4750,7 +4897,7 @@
         <v>805</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4758,14 +4905,14 @@
         <v>806</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4773,7 +4920,7 @@
       <c r="A135" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B135" s="49" t="s">
+      <c r="B135" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4785,11 +4932,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="62" t="s">
+    <row r="139" spans="1:2" ht="15" customHeight="1">
+      <c r="A139" s="63" t="s">
         <v>871</v>
       </c>
-      <c r="B139" s="64"/>
+      <c r="B139" s="65"/>
     </row>
     <row r="140" spans="1:2" ht="30">
       <c r="A140" s="42" t="s">
@@ -4832,10 +4979,10 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="B145" s="51"/>
+      <c r="B145" s="50"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="42" t="s">
@@ -4877,11 +5024,11 @@
         <v>877</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="62" t="s">
+    <row r="154" spans="1:2" ht="15" customHeight="1">
+      <c r="A154" s="63" t="s">
         <v>878</v>
       </c>
-      <c r="B154" s="64"/>
+      <c r="B154" s="65"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="42" t="s">
@@ -4932,17 +5079,17 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="62" t="s">
+      <c r="A161" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B161" s="64"/>
+      <c r="B161" s="65"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4950,7 +5097,7 @@
         <v>804</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4958,7 +5105,7 @@
         <v>805</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4966,14 +5113,14 @@
         <v>806</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B166" s="49" t="s">
+      <c r="B166" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4981,7 +5128,7 @@
       <c r="A167" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B167" s="49" t="s">
+      <c r="B167" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4993,11 +5140,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="62" t="s">
+    <row r="171" spans="1:2" ht="15" customHeight="1">
+      <c r="A171" s="63" t="s">
         <v>883</v>
       </c>
-      <c r="B171" s="64"/>
+      <c r="B171" s="65"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="42" t="s">
@@ -5048,17 +5195,17 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="62" t="s">
+      <c r="A178" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B178" s="64"/>
+      <c r="B178" s="65"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5066,7 +5213,7 @@
         <v>804</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5074,7 +5221,7 @@
         <v>805</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5082,14 +5229,14 @@
         <v>806</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B183" s="49" t="s">
+      <c r="B183" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5097,7 +5244,7 @@
       <c r="A184" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B184" s="49" t="s">
+      <c r="B184" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5109,11 +5256,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="62" t="s">
+    <row r="189" spans="1:2" ht="15" customHeight="1">
+      <c r="A189" s="63" t="s">
         <v>887</v>
       </c>
-      <c r="B189" s="64"/>
+      <c r="B189" s="65"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="42" t="s">
@@ -5164,17 +5311,17 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="62" t="s">
+      <c r="A196" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B196" s="64"/>
+      <c r="B196" s="65"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5182,7 +5329,7 @@
         <v>804</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5190,7 +5337,7 @@
         <v>805</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5198,14 +5345,14 @@
         <v>806</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B201" s="49" t="s">
+      <c r="B201" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5213,7 +5360,7 @@
       <c r="A202" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B202" s="49" t="s">
+      <c r="B202" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5241,11 +5388,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="62" t="s">
+    <row r="208" spans="1:2" ht="15" customHeight="1">
+      <c r="A208" s="63" t="s">
         <v>893</v>
       </c>
-      <c r="B208" s="64"/>
+      <c r="B208" s="65"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="42" t="s">
@@ -5312,17 +5459,17 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="62" t="s">
+      <c r="A217" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B217" s="64"/>
+      <c r="B217" s="65"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5330,7 +5477,7 @@
         <v>804</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5338,7 +5485,7 @@
         <v>805</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5346,14 +5493,14 @@
         <v>806</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B222" s="49" t="s">
+      <c r="B222" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5361,7 +5508,7 @@
       <c r="A223" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B223" s="49" t="s">
+      <c r="B223" s="48" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5372,21 +5519,681 @@
       <c r="B224" s="42"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="65" t="s">
+      <c r="A225" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="B225" s="64"/>
+      <c r="B225" s="65"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>935</v>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="63" t="s">
+        <v>899</v>
+      </c>
+      <c r="B230" s="65"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B231" s="42" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="30">
+      <c r="A232" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="B233" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="B234" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="42" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B237" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B238" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="63" t="s">
+        <v>882</v>
+      </c>
+      <c r="B239" s="65"/>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B240" s="42" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B241" s="42" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B243" s="42" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="67" t="s">
+        <v>903</v>
+      </c>
+      <c r="B244" s="65"/>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B245" s="42" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B246" s="42" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B248" s="42" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B249" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B250" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B251" s="42"/>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B252" s="65"/>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B253" s="42" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="63" t="s">
+        <v>904</v>
+      </c>
+      <c r="B256" s="65"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B257" s="42" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="30">
+      <c r="A258" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B258" s="42" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="B259" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="B260" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="30">
+      <c r="A261" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="42" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B263" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B264" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="63" t="s">
+        <v>882</v>
+      </c>
+      <c r="B265" s="65"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B266" s="42" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B267" s="42" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B269" s="42" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B270" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B271" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B272" s="42"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B273" s="65"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B274" s="42" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="63" t="s">
+        <v>908</v>
+      </c>
+      <c r="B277" s="65"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B278" s="42" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30">
+      <c r="A279" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B279" s="42" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="B280" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="B281" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="42" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B284" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B285" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="63" t="s">
+        <v>882</v>
+      </c>
+      <c r="B286" s="65"/>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B287" s="42" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B288" s="42" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B290" s="42" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B291" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B292" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B293" s="42"/>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B294" s="65"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B295" s="42" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="63" t="s">
+        <v>912</v>
+      </c>
+      <c r="B298" s="65"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B299" s="42" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30">
+      <c r="A300" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B300" s="42" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="B301" s="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="B302" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="42" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B305" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B306" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="63" t="s">
+        <v>882</v>
+      </c>
+      <c r="B307" s="65"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B308" s="42" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B309" s="42" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B311" s="42" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="66" t="s">
+        <v>916</v>
+      </c>
+      <c r="B312" s="65"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B313" s="42" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B314" s="42" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B316" s="42" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B317" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B318" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B319" s="42"/>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B320" s="65"/>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B321" s="42" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B322" s="42" t="s">
+        <v>982</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="32">
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A108:B108"/>
@@ -5405,6 +6212,20 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A294:B294"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -5434,6 +6255,20 @@
     <hyperlink ref="B220" r:id="rId25"/>
     <hyperlink ref="B222" r:id="rId26"/>
     <hyperlink ref="B223" r:id="rId27"/>
+    <hyperlink ref="B242" r:id="rId28"/>
+    <hyperlink ref="B247" r:id="rId29"/>
+    <hyperlink ref="B249" r:id="rId30"/>
+    <hyperlink ref="B250" r:id="rId31"/>
+    <hyperlink ref="B268" r:id="rId32"/>
+    <hyperlink ref="B270" r:id="rId33"/>
+    <hyperlink ref="B271" r:id="rId34"/>
+    <hyperlink ref="B289" r:id="rId35"/>
+    <hyperlink ref="B291" r:id="rId36"/>
+    <hyperlink ref="B292" r:id="rId37"/>
+    <hyperlink ref="B310" r:id="rId38"/>
+    <hyperlink ref="B315" r:id="rId39"/>
+    <hyperlink ref="B317" r:id="rId40"/>
+    <hyperlink ref="B318" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5797,10 +6632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -5823,10 +6658,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -5873,10 +6708,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -5903,10 +6738,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="53"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -5937,10 +6772,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="53"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -6015,14 +6850,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -6081,14 +6916,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -6159,14 +6994,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -6229,14 +7064,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -6303,14 +7138,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -6377,14 +7212,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -6467,14 +7302,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
@@ -6568,14 +7403,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="53" t="s">
+      <c r="B60" s="55"/>
+      <c r="C60" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="54"/>
+      <c r="D60" s="55"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -6668,14 +7503,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="53" t="s">
+      <c r="B70" s="59"/>
+      <c r="C70" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="54"/>
+      <c r="D70" s="55"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -6712,10 +7547,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="54"/>
+      <c r="D73" s="55"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
@@ -6758,14 +7593,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="53" t="s">
+      <c r="B79" s="59"/>
+      <c r="C79" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="54"/>
+      <c r="D79" s="55"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
@@ -6802,10 +7637,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="54"/>
+      <c r="D82" s="55"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
@@ -6846,14 +7681,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="52" t="s">
+      <c r="B88" s="56"/>
+      <c r="C88" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="52"/>
+      <c r="D88" s="53"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
@@ -6904,10 +7739,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="52"/>
+      <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
@@ -6946,10 +7781,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="52"/>
+      <c r="D96" s="53"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
@@ -6992,14 +7827,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="52" t="s">
+      <c r="B103" s="56"/>
+      <c r="C103" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="52"/>
+      <c r="D103" s="53"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
@@ -7022,10 +7857,10 @@
       <c r="B105" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="54"/>
+      <c r="D105" s="55"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
@@ -7140,14 +7975,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="55" t="s">
+      <c r="A118" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="52" t="s">
+      <c r="B118" s="56"/>
+      <c r="C118" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="52"/>
+      <c r="D118" s="53"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -7230,10 +8065,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="56" t="s">
+      <c r="A125" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="54"/>
+      <c r="B125" s="55"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -7280,14 +8115,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="52" t="s">
+      <c r="B131" s="56"/>
+      <c r="C131" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="52"/>
+      <c r="D131" s="53"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -7418,14 +8253,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="52" t="s">
+      <c r="B144" s="56"/>
+      <c r="C144" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="52"/>
+      <c r="D144" s="53"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -7552,14 +8387,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="55" t="s">
+      <c r="A157" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="52" t="s">
+      <c r="B157" s="56"/>
+      <c r="C157" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="52"/>
+      <c r="D157" s="53"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -8975,18 +9810,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="D1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="D1" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="G1" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -9055,14 +9890,14 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="G5" s="62" t="s">
+      <c r="E5" s="61"/>
+      <c r="G5" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
@@ -9187,16 +10022,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="61"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -9239,16 +10074,16 @@
       <c r="B19" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -9303,16 +10138,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="61"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -9351,14 +10186,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="D30" s="59" t="s">
+      <c r="B30" s="61"/>
+      <c r="D30" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="60"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -9403,16 +10238,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="61"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -9463,10 +10298,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="61"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -9481,10 +10316,10 @@
       <c r="B40" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="E40" s="63"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
@@ -9523,10 +10358,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="60"/>
+      <c r="B44" s="61"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -9543,10 +10378,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="60"/>
+      <c r="E46" s="61"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -9563,10 +10398,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -9595,10 +10430,10 @@
       <c r="B50" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="64"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
@@ -9651,10 +10486,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="45">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -9669,10 +10504,10 @@
       <c r="B56" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="63"/>
+      <c r="E56" s="64"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
@@ -9703,10 +10538,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="60"/>
+      <c r="B59" s="61"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -9737,10 +10572,10 @@
       <c r="B62" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="60" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="60"/>
+      <c r="E62" s="61"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -9827,14 +10662,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="62" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="D69" s="62" t="s">
+      <c r="B69" s="62"/>
+      <c r="D69" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E69" s="63"/>
+      <c r="E69" s="64"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="42" t="s">
@@ -9895,10 +10730,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="60"/>
+      <c r="B75" s="61"/>
       <c r="D75" s="46" t="s">
         <v>473</v>
       </c>
@@ -9947,10 +10782,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="60"/>
+      <c r="B79" s="61"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -9981,10 +10816,10 @@
       <c r="B82" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="60"/>
+      <c r="E82" s="61"/>
       <c r="F82" s="44" t="s">
         <v>675</v>
       </c>
@@ -10047,10 +10882,10 @@
       <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E86" s="63"/>
+      <c r="E86" s="64"/>
       <c r="F86" s="45" t="s">
         <v>629</v>
       </c>
@@ -10076,10 +10911,10 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="30">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="60"/>
+      <c r="B89" s="61"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -10129,19 +10964,19 @@
       <c r="B92" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="62" t="s">
+      <c r="D92" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="E92" s="63"/>
+      <c r="E92" s="64"/>
       <c r="F92" s="45" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="60"/>
+      <c r="B93" s="61"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -10295,10 +11130,10 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="62" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="61"/>
+      <c r="B105" s="62"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -10321,10 +11156,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="59" t="s">
+      <c r="D107" s="60" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="60"/>
+      <c r="E107" s="61"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -10369,10 +11204,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="61"/>
+      <c r="B111" s="62"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -10415,10 +11250,10 @@
       <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="62" t="s">
+      <c r="D114" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E114" s="63"/>
+      <c r="E114" s="64"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="42" t="s">
@@ -10491,10 +11326,10 @@
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="30">
-      <c r="A121" s="61" t="s">
+      <c r="A121" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="61"/>
+      <c r="B121" s="62"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -10545,10 +11380,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="61" t="s">
+      <c r="A125" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="61"/>
+      <c r="B125" s="62"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -10593,10 +11428,10 @@
       <c r="B129" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="60"/>
+      <c r="E129" s="61"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -10615,10 +11450,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="45">
-      <c r="A132" s="61" t="s">
+      <c r="A132" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="61"/>
+      <c r="B132" s="62"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -10669,14 +11504,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="61" t="s">
+      <c r="A136" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="61"/>
-      <c r="D136" s="62" t="s">
+      <c r="B136" s="62"/>
+      <c r="D136" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E136" s="63"/>
+      <c r="E136" s="64"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
@@ -10763,10 +11598,10 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="61" t="s">
+      <c r="A144" s="62" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="61"/>
+      <c r="B144" s="62"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -10817,10 +11652,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="61"/>
+      <c r="B148" s="62"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -10865,10 +11700,10 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D152" s="60" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="60"/>
+      <c r="E152" s="61"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -10961,10 +11796,10 @@
       <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="62" t="s">
+      <c r="D159" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E159" s="63"/>
+      <c r="E159" s="64"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="42" t="s">
@@ -10983,10 +11818,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
-      <c r="A162" s="61" t="s">
+      <c r="A162" s="62" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="61"/>
+      <c r="B162" s="62"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -11063,10 +11898,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="61"/>
+      <c r="B168" s="62"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
@@ -11191,10 +12026,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="59" t="s">
+      <c r="D178" s="60" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="60"/>
+      <c r="E178" s="61"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -11227,10 +12062,10 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="61" t="s">
+      <c r="A182" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="61"/>
+      <c r="B182" s="62"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -11273,10 +12108,10 @@
       <c r="B185" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D185" s="62" t="s">
+      <c r="D185" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="E185" s="63"/>
+      <c r="E185" s="64"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
@@ -11307,10 +12142,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="61" t="s">
+      <c r="A188" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="61"/>
+      <c r="B188" s="62"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -11437,10 +12272,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="59" t="s">
+      <c r="D198" s="60" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="60"/>
+      <c r="E198" s="61"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -11493,10 +12328,10 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="61" t="s">
+      <c r="A203" s="62" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="61"/>
+      <c r="B203" s="62"/>
       <c r="D203" s="46" t="s">
         <v>629</v>
       </c>
@@ -11573,10 +12408,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="61" t="s">
+      <c r="A209" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="61"/>
+      <c r="B209" s="62"/>
       <c r="D209" s="46" t="s">
         <v>473</v>
       </c>
@@ -11675,10 +12510,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="59" t="s">
+      <c r="D217" s="60" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="60"/>
+      <c r="E217" s="61"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -11737,10 +12572,10 @@
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="30">
-      <c r="A223" s="61" t="s">
+      <c r="A223" s="62" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="61"/>
+      <c r="B223" s="62"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -11817,10 +12652,10 @@
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="61" t="s">
+      <c r="A229" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="61"/>
+      <c r="B229" s="62"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -11977,10 +12812,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="59" t="s">
+      <c r="D241" s="60" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="60"/>
+      <c r="E241" s="61"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -12032,10 +12867,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="60" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="60"/>
+      <c r="B247" s="61"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -12358,10 +13193,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="59" t="s">
+      <c r="A276" s="60" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="60"/>
+      <c r="B276" s="61"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -12552,10 +13387,10 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="59" t="s">
+      <c r="A305" s="60" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="60"/>
+      <c r="B305" s="61"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">

--- a/TestCases/TestData.xlsx
+++ b/TestCases/TestData.xlsx
@@ -2792,18 +2792,6 @@
     <t>Learner 2</t>
   </si>
   <si>
-    <t>akashAAB_1</t>
-  </si>
-  <si>
-    <t>mylastAAB_1</t>
-  </si>
-  <si>
-    <t>myemailAAB_1_@gmail.com</t>
-  </si>
-  <si>
-    <t>empidAAB_1</t>
-  </si>
-  <si>
     <t>learner2AAB_1</t>
   </si>
   <si>
@@ -2828,18 +2816,6 @@
     <t>emp3AB_1</t>
   </si>
   <si>
-    <t>learner4AB_1</t>
-  </si>
-  <si>
-    <t>ln4AB_1</t>
-  </si>
-  <si>
-    <t>learner4B_1_@gmail.com</t>
-  </si>
-  <si>
-    <t>emp4AB_1</t>
-  </si>
-  <si>
     <t>learner5AB_1</t>
   </si>
   <si>
@@ -2888,21 +2864,6 @@
     <t>Ma1AB_1</t>
   </si>
   <si>
-    <t>learner8AB_1</t>
-  </si>
-  <si>
-    <t>ln8AB_1</t>
-  </si>
-  <si>
-    <t>mail8AB_1_@gmail.com</t>
-  </si>
-  <si>
-    <t>eid8AB_1</t>
-  </si>
-  <si>
-    <t>TestGroup2AB_1</t>
-  </si>
-  <si>
     <t>learner82AB_1</t>
   </si>
   <si>
@@ -2988,6 +2949,45 @@
   </si>
   <si>
     <t>TestGroupDA_1</t>
+  </si>
+  <si>
+    <t>learner8AB_2</t>
+  </si>
+  <si>
+    <t>ln8AB_2</t>
+  </si>
+  <si>
+    <t>mail8AB_2_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid8AB_2</t>
+  </si>
+  <si>
+    <t>TestGroup2AB_2</t>
+  </si>
+  <si>
+    <t>akashAAB_2</t>
+  </si>
+  <si>
+    <t>mylastAAB_2</t>
+  </si>
+  <si>
+    <t>myemailAAB_2_@gmail.com</t>
+  </si>
+  <si>
+    <t>empidAAB_2</t>
+  </si>
+  <si>
+    <t>learner4AB_2</t>
+  </si>
+  <si>
+    <t>ln4AB_2</t>
+  </si>
+  <si>
+    <t>learner4B_2_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp4AB_2</t>
   </si>
 </sst>
 </file>
@@ -3418,13 +3418,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3442,13 +3442,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3942,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3962,14 +3962,14 @@
       <c r="A1" s="63" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>917</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>804</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>918</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>805</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>919</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>806</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>920</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4028,7 +4028,7 @@
       <c r="A12" s="63" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="42" t="s">
@@ -4130,7 +4130,7 @@
       <c r="A27" s="63" t="s">
         <v>815</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="66"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="42" t="s">
@@ -4168,7 +4168,7 @@
       <c r="A32" s="63" t="s">
         <v>819</v>
       </c>
-      <c r="B32" s="65"/>
+      <c r="B32" s="66"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="42" t="s">
@@ -4214,14 +4214,14 @@
       <c r="A38" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="66"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>804</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>805</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>806</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4276,7 +4276,7 @@
       <c r="A48" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="B48" s="65"/>
+      <c r="B48" s="66"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="42" t="s">
@@ -4443,7 +4443,7 @@
         <v>803</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4451,7 +4451,7 @@
         <v>804</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4459,7 +4459,7 @@
         <v>805</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4467,7 +4467,7 @@
         <v>806</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4498,7 +4498,7 @@
       <c r="A78" s="63" t="s">
         <v>837</v>
       </c>
-      <c r="B78" s="65"/>
+      <c r="B78" s="66"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="42" t="s">
@@ -4653,7 +4653,7 @@
         <v>803</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>929</v>
+        <v>979</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>804</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>930</v>
+        <v>980</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>805</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>931</v>
+        <v>981</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>806</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>932</v>
+        <v>982</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4708,7 +4708,7 @@
       <c r="A108" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="B108" s="65"/>
+      <c r="B108" s="66"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="42" t="s">
@@ -4881,7 +4881,7 @@
         <v>803</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>804</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>805</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>806</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4936,7 +4936,7 @@
       <c r="A139" s="63" t="s">
         <v>871</v>
       </c>
-      <c r="B139" s="65"/>
+      <c r="B139" s="66"/>
     </row>
     <row r="140" spans="1:2" ht="30">
       <c r="A140" s="42" t="s">
@@ -5028,7 +5028,7 @@
       <c r="A154" s="63" t="s">
         <v>878</v>
       </c>
-      <c r="B154" s="65"/>
+      <c r="B154" s="66"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="42" t="s">
@@ -5082,14 +5082,14 @@
       <c r="A161" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B161" s="65"/>
+      <c r="B161" s="66"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>804</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>805</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>806</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5144,7 +5144,7 @@
       <c r="A171" s="63" t="s">
         <v>883</v>
       </c>
-      <c r="B171" s="65"/>
+      <c r="B171" s="66"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="42" t="s">
@@ -5198,14 +5198,14 @@
       <c r="A178" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B178" s="65"/>
+      <c r="B178" s="66"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>804</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>805</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>806</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5260,7 +5260,7 @@
       <c r="A189" s="63" t="s">
         <v>887</v>
       </c>
-      <c r="B189" s="65"/>
+      <c r="B189" s="66"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="42" t="s">
@@ -5314,14 +5314,14 @@
       <c r="A196" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B196" s="65"/>
+      <c r="B196" s="66"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>804</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5337,7 +5337,7 @@
         <v>805</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5345,7 +5345,7 @@
         <v>806</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5392,7 +5392,7 @@
       <c r="A208" s="63" t="s">
         <v>893</v>
       </c>
-      <c r="B208" s="65"/>
+      <c r="B208" s="66"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="42" t="s">
@@ -5462,14 +5462,14 @@
       <c r="A217" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B217" s="65"/>
+      <c r="B217" s="66"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>804</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>805</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>806</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5519,24 +5519,24 @@
       <c r="B224" s="42"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="67" t="s">
+      <c r="A225" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="B225" s="65"/>
+      <c r="B225" s="66"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="63" t="s">
         <v>899</v>
       </c>
-      <c r="B230" s="65"/>
+      <c r="B230" s="66"/>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="42" t="s">
@@ -5606,14 +5606,14 @@
       <c r="A239" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B239" s="65"/>
+      <c r="B239" s="66"/>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B240" s="42" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>804</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>805</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5637,21 +5637,21 @@
         <v>806</v>
       </c>
       <c r="B243" s="42" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="67" t="s">
+      <c r="A244" s="65" t="s">
         <v>903</v>
       </c>
-      <c r="B244" s="65"/>
+      <c r="B244" s="66"/>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B245" s="42" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5659,7 +5659,7 @@
         <v>804</v>
       </c>
       <c r="B246" s="42" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5667,7 +5667,7 @@
         <v>805</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5675,7 +5675,7 @@
         <v>806</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5701,24 +5701,24 @@
       <c r="B251" s="42"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="67" t="s">
+      <c r="A252" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="B252" s="65"/>
+      <c r="B252" s="66"/>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="63" t="s">
         <v>904</v>
       </c>
-      <c r="B256" s="65"/>
+      <c r="B256" s="66"/>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="42" t="s">
@@ -5788,14 +5788,14 @@
       <c r="A265" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B265" s="65"/>
+      <c r="B265" s="66"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5803,7 +5803,7 @@
         <v>804</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5811,7 +5811,7 @@
         <v>805</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5819,7 +5819,7 @@
         <v>806</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5845,24 +5845,24 @@
       <c r="B272" s="42"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="67" t="s">
+      <c r="A273" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="B273" s="65"/>
+      <c r="B273" s="66"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="63" t="s">
         <v>908</v>
       </c>
-      <c r="B277" s="65"/>
+      <c r="B277" s="66"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="42" t="s">
@@ -5932,14 +5932,14 @@
       <c r="A286" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B286" s="65"/>
+      <c r="B286" s="66"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B287" s="42" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5947,7 +5947,7 @@
         <v>804</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5955,7 +5955,7 @@
         <v>805</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5963,7 +5963,7 @@
         <v>806</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5989,24 +5989,24 @@
       <c r="B293" s="42"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="67" t="s">
+      <c r="A294" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="B294" s="65"/>
+      <c r="B294" s="66"/>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="63" t="s">
         <v>912</v>
       </c>
-      <c r="B298" s="65"/>
+      <c r="B298" s="66"/>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
@@ -6076,14 +6076,14 @@
       <c r="A307" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="B307" s="65"/>
+      <c r="B307" s="66"/>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6091,7 +6091,7 @@
         <v>804</v>
       </c>
       <c r="B309" s="42" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6099,7 +6099,7 @@
         <v>805</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6107,21 +6107,21 @@
         <v>806</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="66" t="s">
+      <c r="A312" s="67" t="s">
         <v>916</v>
       </c>
-      <c r="B312" s="65"/>
+      <c r="B312" s="66"/>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="42" t="s">
         <v>803</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6129,7 +6129,7 @@
         <v>804</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6137,7 +6137,7 @@
         <v>805</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6145,7 +6145,7 @@
         <v>806</v>
       </c>
       <c r="B316" s="42" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6171,17 +6171,17 @@
       <c r="B319" s="42"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="67" t="s">
+      <c r="A320" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="B320" s="65"/>
+      <c r="B320" s="66"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="42" t="s">
         <v>898</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -6189,11 +6189,31 @@
         <v>898</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A108:B108"/>
@@ -6206,26 +6226,6 @@
     <mergeCell ref="A196:B196"/>
     <mergeCell ref="A208:B208"/>
     <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A294:B294"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -7503,10 +7503,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="59"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="54" t="s">
         <v>170</v>
       </c>
@@ -7593,10 +7593,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="59"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="54" t="s">
         <v>182</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="59" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="55"/>
@@ -8528,6 +8528,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -8538,34 +8566,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -13598,26 +13598,37 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="A89:B89"/>
@@ -13631,37 +13642,26 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/TestData.xlsx
+++ b/TestCases/TestData.xlsx
@@ -2951,33 +2951,6 @@
     <t>TestGroupDA_1</t>
   </si>
   <si>
-    <t>learner8AB_2</t>
-  </si>
-  <si>
-    <t>ln8AB_2</t>
-  </si>
-  <si>
-    <t>mail8AB_2_@gmail.com</t>
-  </si>
-  <si>
-    <t>eid8AB_2</t>
-  </si>
-  <si>
-    <t>TestGroup2AB_2</t>
-  </si>
-  <si>
-    <t>akashAAB_2</t>
-  </si>
-  <si>
-    <t>mylastAAB_2</t>
-  </si>
-  <si>
-    <t>myemailAAB_2_@gmail.com</t>
-  </si>
-  <si>
-    <t>empidAAB_2</t>
-  </si>
-  <si>
     <t>learner4AB_2</t>
   </si>
   <si>
@@ -2988,6 +2961,33 @@
   </si>
   <si>
     <t>emp4AB_2</t>
+  </si>
+  <si>
+    <t>TestGroup2AB_3</t>
+  </si>
+  <si>
+    <t>learner8AB_3</t>
+  </si>
+  <si>
+    <t>ln8AB_3</t>
+  </si>
+  <si>
+    <t>mail8AB_3_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid8AB_3</t>
+  </si>
+  <si>
+    <t>akashAAB_3</t>
+  </si>
+  <si>
+    <t>mylastAAB_3</t>
+  </si>
+  <si>
+    <t>myemailAAB_3_@gmail.com</t>
+  </si>
+  <si>
+    <t>empidAAB_3</t>
   </si>
 </sst>
 </file>
@@ -3942,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3969,7 +3969,7 @@
         <v>803</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>804</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>805</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>806</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>803</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>804</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>805</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>806</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>803</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>804</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>805</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>806</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="222" spans="1:2">
